--- a/Data/Table/SlotParam.xlsx
+++ b/Data/Table/SlotParam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ExcelBuilder\Data\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20421B8D-157E-4C09-93BE-8C861C1A0804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67817E2A-485B-4E7B-9456-59F099E9D046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="15" windowWidth="29310" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="34">
   <si>
     <t>Empty</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,93 @@
   </si>
   <si>
     <t>SpritePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class[</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapSlot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slot10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Point12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slot9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slot10</t>
+  </si>
+  <si>
+    <t>Point12</t>
+  </si>
+  <si>
+    <t>Slot11</t>
+  </si>
+  <si>
+    <t>Slot12</t>
+  </si>
+  <si>
+    <t>Slot24</t>
+  </si>
+  <si>
+    <t>NextType;MapSlot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slot0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Point56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAA2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,9 +210,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -406,103 +496,646 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55AC365-4999-4E31-8E9F-E8A086E1893A}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B11"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
         <v>9</v>
       </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
         <v>10</v>
       </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="str">
-        <f>"Textures/"&amp;A3</f>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O11" si="0">"Textures/"&amp;A3</f>
         <v>Textures/Empty</v>
       </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3">
+        <v>12</v>
+      </c>
+      <c r="V3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3">
+        <v>12</v>
+      </c>
+      <c r="X3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y3">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="str">
-        <f>"Textures/"&amp;A4</f>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4">
+        <v>12</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="0"/>
         <v>Textures/Gold</v>
       </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4">
+        <v>12</v>
+      </c>
+      <c r="V4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4">
+        <v>12</v>
+      </c>
+      <c r="X4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y4">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="str">
-        <f>"Textures/"&amp;A5</f>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5">
+        <v>12</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="0"/>
         <v>Textures/Shop</v>
       </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U5">
+        <v>12</v>
+      </c>
+      <c r="V5" t="s">
+        <v>24</v>
+      </c>
+      <c r="W5">
+        <v>12</v>
+      </c>
+      <c r="X5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y5">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="str">
-        <f>"Textures/"&amp;A6</f>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6">
+        <v>12</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="0"/>
         <v>Textures/Monster</v>
       </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s">
+        <v>24</v>
+      </c>
+      <c r="U6">
+        <v>12</v>
+      </c>
+      <c r="V6" t="s">
+        <v>24</v>
+      </c>
+      <c r="W6">
+        <v>12</v>
+      </c>
+      <c r="X6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y6">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="str">
-        <f>"Textures/"&amp;A7</f>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7">
+        <v>12</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="0"/>
         <v>Textures/Elite</v>
       </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>6</v>
+      </c>
+      <c r="T7" t="s">
+        <v>29</v>
+      </c>
+      <c r="U7">
+        <v>12</v>
+      </c>
+      <c r="V7" t="s">
+        <v>24</v>
+      </c>
+      <c r="W7">
+        <v>12</v>
+      </c>
+      <c r="X7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y7">
+        <v>12</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="str">
-        <f>"Textures/"&amp;A8</f>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8">
+        <v>12</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="0"/>
         <v>Textures/Boss</v>
       </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>7</v>
+      </c>
+      <c r="T8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U8">
+        <v>12</v>
+      </c>
+      <c r="V8" t="s">
+        <v>24</v>
+      </c>
+      <c r="W8">
+        <v>12</v>
+      </c>
+      <c r="X8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y8">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="str">
-        <f>"Textures/"&amp;A9</f>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9">
+        <v>12</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="0"/>
         <v>Textures/MapCard</v>
       </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>8</v>
+      </c>
+      <c r="T9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U9">
+        <v>12</v>
+      </c>
+      <c r="V9" t="s">
+        <v>24</v>
+      </c>
+      <c r="W9">
+        <v>12</v>
+      </c>
+      <c r="X9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y9">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="str">
-        <f>"Textures/"&amp;A10</f>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10">
+        <v>12</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="0"/>
         <v>Textures/Event</v>
       </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>9</v>
+      </c>
+      <c r="T10" t="s">
+        <v>24</v>
+      </c>
+      <c r="U10">
+        <v>12</v>
+      </c>
+      <c r="V10" t="s">
+        <v>24</v>
+      </c>
+      <c r="W10">
+        <v>12</v>
+      </c>
+      <c r="X10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y10">
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="str">
-        <f>"Textures/"&amp;A11</f>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11">
+        <v>12</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="0"/>
         <v>Textures/Branch</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>10</v>
+      </c>
+      <c r="T11" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11">
+        <v>12</v>
+      </c>
+      <c r="V11" t="s">
+        <v>24</v>
+      </c>
+      <c r="W11">
+        <v>12</v>
+      </c>
+      <c r="X11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y11">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Table/SlotParam.xlsx
+++ b/Data/Table/SlotParam.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ExcelBuilder\Data\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67817E2A-485B-4E7B-9456-59F099E9D046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2AED52-A61F-4281-A286-6249FFB790D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="35">
   <si>
     <t>Empty</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +161,10 @@
   </si>
   <si>
     <t>AAA2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,7 +503,7 @@
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -517,6 +521,9 @@
       <c r="D1" t="s">
         <v>13</v>
       </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
       <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
@@ -570,6 +577,9 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
       <c r="J2" t="s">
         <v>19</v>
       </c>
@@ -611,14 +621,14 @@
       <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
         <v>21</v>
-      </c>
-      <c r="H3">
-        <v>12</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
@@ -671,14 +681,14 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F4">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
         <v>21</v>
-      </c>
-      <c r="H4">
-        <v>12</v>
       </c>
       <c r="J4" t="s">
         <v>23</v>
@@ -731,14 +741,14 @@
       <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="F5">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5">
-        <v>12</v>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
       </c>
       <c r="J5" t="s">
         <v>25</v>
@@ -791,14 +801,14 @@
       <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="F6">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6">
-        <v>12</v>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
       </c>
       <c r="J6" t="s">
         <v>26</v>
@@ -851,14 +861,14 @@
       <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="F7">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7">
-        <v>12</v>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
       </c>
       <c r="J7" t="s">
         <v>27</v>
@@ -911,14 +921,14 @@
       <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="F8">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8">
-        <v>12</v>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
       </c>
       <c r="J8" t="s">
         <v>22</v>
@@ -971,14 +981,14 @@
       <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="F9">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9">
-        <v>12</v>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
       </c>
       <c r="J9" t="s">
         <v>22</v>
@@ -1031,14 +1041,14 @@
       <c r="E10" t="s">
         <v>24</v>
       </c>
-      <c r="F10">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10">
-        <v>12</v>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
       </c>
       <c r="J10" t="s">
         <v>22</v>
@@ -1091,14 +1101,14 @@
       <c r="E11" t="s">
         <v>24</v>
       </c>
-      <c r="F11">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11">
-        <v>12</v>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
       </c>
       <c r="J11" t="s">
         <v>23</v>

--- a/Data/Table/SlotParam.xlsx
+++ b/Data/Table/SlotParam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ExcelBuilder\Data\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2AED52-A61F-4281-A286-6249FFB790D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B90686-278F-45A5-BED5-81125C85E343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15345" yWindow="6105" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="35">
   <si>
     <t>Empty</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -503,7 +503,7 @@
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -633,9 +633,6 @@
       <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="L3" t="s">
-        <v>21</v>
-      </c>
       <c r="M3">
         <v>12</v>
       </c>

--- a/Data/Table/SlotParam.xlsx
+++ b/Data/Table/SlotParam.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ExcelBuilder\Data\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\ExcelBuilder\Data\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B90686-278F-45A5-BED5-81125C85E343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6172743-F0CA-401C-B176-137974793516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15345" yWindow="6105" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="132" yWindow="2568" windowWidth="9636" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="35">
   <si>
     <t>Empty</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,13 +176,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -502,16 +502,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55AC365-4999-4E31-8E9F-E8A086E1893A}">
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="21.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>11</v>
       </c>
@@ -567,7 +567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>16</v>
       </c>
@@ -608,7 +608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -619,15 +619,6 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
         <v>21</v>
       </c>
       <c r="J3" t="s">
@@ -665,7 +656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -725,7 +716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -785,7 +776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -845,7 +836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -905,7 +896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -965,7 +956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1025,7 +1016,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1085,7 +1076,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>8</v>
       </c>
